--- a/data/profiles/xlsx/bluff/profile 31-6 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 31-6 graph.xlsx
@@ -19512,11 +19512,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92175161"/>
-        <c:axId val="17075669"/>
+        <c:axId val="13587308"/>
+        <c:axId val="40439976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92175161"/>
+        <c:axId val="13587308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19551,12 +19551,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17075669"/>
+        <c:crossAx val="40439976"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17075669"/>
+        <c:axId val="40439976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19600,7 +19600,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92175161"/>
+        <c:crossAx val="13587308"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
